--- a/medicine/Handicap/L'Informatique_au_service_des_handicapés/L'Informatique_au_service_des_handicapés.xlsx
+++ b/medicine/Handicap/L'Informatique_au_service_des_handicapés/L'Informatique_au_service_des_handicapés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Informatique_au_service_des_handicap%C3%A9s</t>
+          <t>L'Informatique_au_service_des_handicapés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'informatique au service des handicapés est un livre de Patrick Collignon destiné aux personnes handicapées (physique ou sensoriel) et à leur entourage (famille et autres). Son contenu est de tout niveau : cela va des conseils très généraux jusqu'à des détails techniques très précis, de l'achat à l'utilisation de l'ordinateur.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Informatique_au_service_des_handicap%C3%A9s</t>
+          <t>L'Informatique_au_service_des_handicapés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,89 +527,239 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les 2 types d'accessibilité
-Ce livre différencie 
+          <t>Les 2 types d'accessibilité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce livre différencie 
 l'accessibilité à l'ordinateur (qui nécessite un matériel adapté)
-l'accessibilité au contenu des sites web qui nécessite que les concepteurs de page web pensent aux différents cas particuliers des utilisateurs handicapés.
-La classification des handicaps par l'OMS (Organisation mondiale de la santé)
-P. Collignon cite Wood pour la classification des handicaps : Wood regroupe le handicap en 3 domaines : déficience (ce terme est en partie synonyme de déficience), incapacité et désavantage. Cette classification a été utilisée par l'OMS pour établir une Classification internationale des handicaps (CIH), puis elle a été adoptée en France en 1988 pour établir des statistiques sur les personnes handicapées.
-Sur l'achat de matériels informatiques pour personnes handicapées
-P. Collignon insiste lourdement sur un point : lorsqu'on doit acheter du matériel informatique spécifique pour une personne handicapée, il faut bien discuter avec le vendeur, être sûr que le matériel acheté fonctionne et est bien adapté au handicap particulier de l'utilisateur final. Pour les personnes malvoyantes, il indique la personne malvoyante doit pouvoir toucher les articles [avant l'achat], c'est sa manière de voir.
+l'accessibilité au contenu des sites web qui nécessite que les concepteurs de page web pensent aux différents cas particuliers des utilisateurs handicapés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>L'Informatique_au_service_des_handicapés</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Considérations générales</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La classification des handicaps par l'OMS (Organisation mondiale de la santé)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P. Collignon cite Wood pour la classification des handicaps : Wood regroupe le handicap en 3 domaines : déficience (ce terme est en partie synonyme de déficience), incapacité et désavantage. Cette classification a été utilisée par l'OMS pour établir une Classification internationale des handicaps (CIH), puis elle a été adoptée en France en 1988 pour établir des statistiques sur les personnes handicapées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>L'Informatique_au_service_des_handicapés</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Considérations générales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sur l'achat de matériels informatiques pour personnes handicapées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P. Collignon insiste lourdement sur un point : lorsqu'on doit acheter du matériel informatique spécifique pour une personne handicapée, il faut bien discuter avec le vendeur, être sûr que le matériel acheté fonctionne et est bien adapté au handicap particulier de l'utilisateur final. Pour les personnes malvoyantes, il indique la personne malvoyante doit pouvoir toucher les articles [avant l'achat], c'est sa manière de voir.
 P. Colligon insiste sur un autre point, s'adressant entre autres aux parents d'enfants handicapés ; certains handicaps évoluent, faisant que le matériel acheté ne sera plus adapté au handicap. Malgré ce problème, il ne faut pas hésiter à acheter du matériel informatique pour une personne handicapée.
 Outre les vendeurs de matériel informatique adapté, les ergothérapeutes sont des professionnels du handicap, de la rééducation et de la réadaption qui pourront le mieux vous conseiller. Après un bilan des compétences, des difficultés et des besoins ou envies de la personne l'ergothérapeute définira le matériel le plus adapté à chaque situation. différents centres ressources Handicap et technologies de l'information de la communication existent. Il ne faut pas hésiter à les contacter car tous proposent des essais.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>L%27Informatique_au_service_des_handicap%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>L'Informatique_au_service_des_handicapés</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Conseil pour les personnes aidant une personne non-voyante à se servir d'un ordinateur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ne pas hésiter à utiliser le terme "voir" lorsqu'on s'adresse à une personne non-voyante, c'est le conseil que donne P. Collignon. 
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>L%27Informatique_au_service_des_handicap%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L'Informatique_au_service_des_handicapés</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Les matériels adaptés pour les personnes handicapées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les claviers seuls
-Les claviers sont le domaine où le livre de P. Collignon est le plus détaillé : 
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les claviers seuls</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les claviers sont le domaine où le livre de P. Collignon est le plus détaillé : 
 guide-doigts ;
 clavier temporisé : pour donner un exemple frappant, il facilite le fameux Ctrl-Alt-Del de Windows (NB : ou le ctraltdel du fichier inittab de linux) ;
 clavier aux dimensions adaptées ;
 clavier à une main,
 clavier virtuel ;
-claviers programmables.
-Plage braille et imprimante braille
-Sera complété plus tard.
-Souris seule
-souris USB opto-couplée
+claviers programmables.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Informatique_au_service_des_handicapés</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les matériels adaptés pour les personnes handicapées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plage braille et imprimante braille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sera complété plus tard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>L'Informatique_au_service_des_handicapés</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les matériels adaptés pour les personnes handicapées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Souris seule</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>souris USB opto-couplée
 interfaces d'émulation souris
 trackball
 joystick
@@ -614,116 +776,260 @@
 contacteur à tirer
 contacteur pneumatique ; P. Collignon indique qu'« il est compatible avec les systèmes d'appel infirmière à ouverture ou fermeture ».²
 contacteur jeu
-interface pour contacteur
-Mécanisme pour remplacer à la fois clavier et souris
-écran et dalle tactile
+interface pour contacteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>L'Informatique_au_service_des_handicapés</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les matériels adaptés pour les personnes handicapées</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mécanisme pour remplacer à la fois clavier et souris</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>écran et dalle tactile
 commande ou dictée vocale</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>L%27Informatique_au_service_des_handicap%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>L'Informatique_au_service_des_handicapés</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>En 1973, les précurseurs dans ce domaine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1973, Jean-Claude Gabus créa Linguaduc, un contrôle de l'environnement par la langue. Il créa ensuite la Fondation suisse pour les téléthèses, qui a pour but de mettre la technologie au service de la personne en situation de handicap avec laquelle il créa "B.A.Bar", un lecteur de code barre parlant utilisé dans le domaine de la communication alternative et améliorée[précision nécessaire] ainsi que JAMES, la première télécommande universelle infrarouge destinée au contrôle de l'environnement.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>L%27Informatique_au_service_des_handicap%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>L'Informatique_au_service_des_handicapés</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>L'informatique pour un débutant</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les néophytes, P. Collignon essaie d'expliquer le fonctionnement d'un ordinateur. Il explique notamment les options d'accessibilité de Windows 98. 
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>L%27Informatique_au_service_des_handicap%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>L'Informatique_au_service_des_handicapés</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Liste des fabricants/distributeurs de matériel adapté</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En octobre 2005, les fournisseurs cités dans les chapitres suivants ont toujours un site web consacré aux personnes handicapées. Ceux qui apparaissent dans le livre de Collignon et qui n'ont pas ou plus de page web ne sont pas cités.
-Fournisseurs pour handicaps visuels
-Accessolutions, Adaptinfo, Alphabraille, Axos-fr, Baum France,  CECIaa (qui a repris Itack), CECIlog, CECItech,  
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2005, les fournisseurs cités dans les chapitres suivants ont toujours un site web consacré aux personnes handicapées. Ceux qui apparaissent dans le livre de Collignon et qui n'ont pas ou plus de page web ne sont pas cités.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>L'Informatique_au_service_des_handicapés</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des fabricants/distributeurs de matériel adapté</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fournisseurs pour handicaps visuels</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Accessolutions, Adaptinfo, Alphabraille, Axos-fr, Baum France,  CECIaa (qui a repris Itack), CECIlog, CECItech,  
 Electrel, Etexfrance, Eurobraille, Handialog, Metrovision, Technibraille, Dystri Kardi
-Fournisseurs pour clavier-souris adaptés
-Cimis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>L'Informatique_au_service_des_handicapés</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des fabricants/distributeurs de matériel adapté</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fournisseurs pour clavier-souris adaptés</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Cimis
 CREE : Centre de Réalisations en Ergothérapie et Ergonomie
 JPR International
 Maltron (le livre est illustré de superbes photos de clavier de ce fabricant)
 Vocalisis
 Suppléance
 Hop'Toys ( Solutions pour enfants exceptionnels)
-Dystri Kardi
-Fournisseurs divers
-Int'elec domotique
+Dystri Kardi</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>L'Informatique_au_service_des_handicapés</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Informatique_au_service_des_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des fabricants/distributeurs de matériel adapté</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fournisseurs divers</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Int'elec domotique
 Proteor
 Fondation suisse pour les téléthèses
 eROCCA
